--- a/biology/Médecine/Kazimierz_Dłuski/Kazimierz_Dłuski.xlsx
+++ b/biology/Médecine/Kazimierz_Dłuski/Kazimierz_Dłuski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C5%82uski</t>
+          <t>Kazimierz_Dłuski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kazimierz Dłuski, né 1er novembre 1855 à Sosnówka en Podolie et mort le 6 septembre 1930 à Otwock, est un homme politique et médecin polonais, activiste social et militant du Parti socialiste polonais, beau-frère de Marie Curie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C5%82uski</t>
+          <t>Kazimierz_Dłuski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étudiant à l'Université de Varsovie (1877), il organise les premiers cercles socialistes à la capitale polonaise. En raison de divers controverses politiques et accusé d'anarchisme, doit s'exiler à Genève (1878) où il collabore avec Ludwik Waryński à la création de la revue socialiste Równość (Égalité), publiant aussi dans Walka Klas (La lutte des classes) éditée à Genève et d'autres revues polonaises. En 1881, il participe au congrès socialiste de Coire. 
 À partir de 1881, il vit à Paris, où  étudie de sciences politiques et de médecine, toujours très actif dans le mouvement socialiste et dans la presse socialiste en langue polonaise. Il publie des articles mais aussi des brochures et une collection de ses articles intitulée Esquisses historiques et sociales publié à Zurich en 1898. Il y rencontre sa femme  Bronisława, également médecin est la sœur aînée de Maria Skłodowska-Curie. Ils se marient le 4 septembre 1891. Leur appartement à Paris est ouvert aux émigrants politiques de Pologne et Stanisław Wojciechowski et Ignacy Mościcki sont souvent leurs invités.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C5%82uski</t>
+          <t>Kazimierz_Dłuski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Officier de l'Ordre Polonia Restituta (1923)
 Commandeur de l'Ordre Polonia Restituta (1928)</t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kazimierz_D%C5%82uski</t>
+          <t>Kazimierz_Dłuski</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mistrz wścieklica i spółka, avec Witold Piekarski, 1883
 Rokowanie w gruźlicy płuc, 1926
